--- a/AKBM.OL.xlsx
+++ b/AKBM.OL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A1194F-EB48-4F83-A941-43214AD46CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B4D911-D183-4FA7-BCEB-7C92E27A76D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A9516F44-2D82-404F-B05A-D9F2C322515E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{A9516F44-2D82-404F-B05A-D9F2C322515E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -128,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,12 +140,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -154,6 +152,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,16 +189,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -524,44 +537,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F1BDC7-C31F-42CC-93B0-C4118D943F90}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>58.4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="3">
         <v>87.680925000000002</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="3">
@@ -569,32 +583,32 @@
         <v>5120.5660200000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="3">
         <f>15+0.09</f>
         <v>15.09</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="3">
         <f>140.3+7.2</f>
         <v>147.5</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="3">
@@ -611,36 +625,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA533C65-843E-48E6-A200-4C19AEE4FC8D}">
   <dimension ref="A1:BR345"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -710,29 +725,29 @@
       <c r="BQ3" s="3"/>
       <c r="BR3" s="3"/>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>196.3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>199</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -787,8 +802,8 @@
       <c r="BQ4" s="3"/>
       <c r="BR4" s="3"/>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3"/>
@@ -864,8 +879,8 @@
       <c r="BQ5" s="3"/>
       <c r="BR5" s="3"/>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3"/>
@@ -946,8 +961,8 @@
       <c r="BQ6" s="3"/>
       <c r="BR6" s="3"/>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3"/>
@@ -1023,8 +1038,8 @@
       <c r="BQ7" s="3"/>
       <c r="BR7" s="3"/>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3"/>
@@ -1100,8 +1115,8 @@
       <c r="BQ8" s="3"/>
       <c r="BR8" s="3"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="3"/>
@@ -1177,8 +1192,8 @@
       <c r="BQ9" s="3"/>
       <c r="BR9" s="3"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="3"/>
@@ -1259,8 +1274,8 @@
       <c r="BQ10" s="3"/>
       <c r="BR10" s="3"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="3"/>
@@ -1336,8 +1351,8 @@
       <c r="BQ11" s="3"/>
       <c r="BR11" s="3"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3"/>
@@ -1413,8 +1428,8 @@
       <c r="BQ12" s="3"/>
       <c r="BR12" s="3"/>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3"/>
@@ -1491,8 +1506,8 @@
       <c r="BQ13" s="3"/>
       <c r="BR13" s="3"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="3">
@@ -1576,8 +1591,8 @@
       <c r="BQ14" s="3"/>
       <c r="BR14" s="3"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="3"/>
@@ -1653,8 +1668,8 @@
       <c r="BQ15" s="3"/>
       <c r="BR15" s="3"/>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="3"/>
@@ -1730,8 +1745,8 @@
       <c r="BQ16" s="3"/>
       <c r="BR16" s="3"/>
     </row>
-    <row r="17" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="3"/>
@@ -1812,7 +1827,7 @@
       <c r="BQ17" s="3"/>
       <c r="BR17" s="3"/>
     </row>
-    <row r="18" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1882,20 +1897,20 @@
       <c r="BQ18" s="3"/>
       <c r="BR18" s="3"/>
     </row>
-    <row r="19" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="6" t="e">
+      <c r="D19" s="7" t="e">
         <f t="shared" ref="D19:E19" si="4">+D17/D20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="7">
         <f t="shared" si="4"/>
         <v>-0.10266814429701938</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="7">
         <f>+F17/F20</f>
         <v>2.0540385494336424</v>
       </c>
@@ -1964,8 +1979,8 @@
       <c r="BQ19" s="3"/>
       <c r="BR19" s="3"/>
     </row>
-    <row r="20" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="3"/>
@@ -2041,7 +2056,7 @@
       <c r="BQ20" s="3"/>
       <c r="BR20" s="3"/>
     </row>
-    <row r="21" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2111,7 +2126,7 @@
       <c r="BQ21" s="3"/>
       <c r="BR21" s="3"/>
     </row>
-    <row r="22" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2181,7 +2196,7 @@
       <c r="BQ22" s="3"/>
       <c r="BR22" s="3"/>
     </row>
-    <row r="23" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2251,7 +2266,7 @@
       <c r="BQ23" s="3"/>
       <c r="BR23" s="3"/>
     </row>
-    <row r="24" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2321,7 +2336,7 @@
       <c r="BQ24" s="3"/>
       <c r="BR24" s="3"/>
     </row>
-    <row r="25" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2391,7 +2406,7 @@
       <c r="BQ25" s="3"/>
       <c r="BR25" s="3"/>
     </row>
-    <row r="26" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2461,7 +2476,7 @@
       <c r="BQ26" s="3"/>
       <c r="BR26" s="3"/>
     </row>
-    <row r="27" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2531,7 +2546,7 @@
       <c r="BQ27" s="3"/>
       <c r="BR27" s="3"/>
     </row>
-    <row r="28" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2601,7 +2616,7 @@
       <c r="BQ28" s="3"/>
       <c r="BR28" s="3"/>
     </row>
-    <row r="29" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2671,7 +2686,7 @@
       <c r="BQ29" s="3"/>
       <c r="BR29" s="3"/>
     </row>
-    <row r="30" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2741,7 +2756,7 @@
       <c r="BQ30" s="3"/>
       <c r="BR30" s="3"/>
     </row>
-    <row r="31" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2811,7 +2826,7 @@
       <c r="BQ31" s="3"/>
       <c r="BR31" s="3"/>
     </row>
-    <row r="32" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2881,7 +2896,7 @@
       <c r="BQ32" s="3"/>
       <c r="BR32" s="3"/>
     </row>
-    <row r="33" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2951,7 +2966,7 @@
       <c r="BQ33" s="3"/>
       <c r="BR33" s="3"/>
     </row>
-    <row r="34" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -3021,7 +3036,7 @@
       <c r="BQ34" s="3"/>
       <c r="BR34" s="3"/>
     </row>
-    <row r="35" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -3091,7 +3106,7 @@
       <c r="BQ35" s="3"/>
       <c r="BR35" s="3"/>
     </row>
-    <row r="36" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -3161,7 +3176,7 @@
       <c r="BQ36" s="3"/>
       <c r="BR36" s="3"/>
     </row>
-    <row r="37" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -3231,7 +3246,7 @@
       <c r="BQ37" s="3"/>
       <c r="BR37" s="3"/>
     </row>
-    <row r="38" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -3301,7 +3316,7 @@
       <c r="BQ38" s="3"/>
       <c r="BR38" s="3"/>
     </row>
-    <row r="39" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3371,7 +3386,7 @@
       <c r="BQ39" s="3"/>
       <c r="BR39" s="3"/>
     </row>
-    <row r="40" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3441,7 +3456,7 @@
       <c r="BQ40" s="3"/>
       <c r="BR40" s="3"/>
     </row>
-    <row r="41" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3511,7 +3526,7 @@
       <c r="BQ41" s="3"/>
       <c r="BR41" s="3"/>
     </row>
-    <row r="42" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3581,7 +3596,7 @@
       <c r="BQ42" s="3"/>
       <c r="BR42" s="3"/>
     </row>
-    <row r="43" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3651,7 +3666,7 @@
       <c r="BQ43" s="3"/>
       <c r="BR43" s="3"/>
     </row>
-    <row r="44" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3721,7 +3736,7 @@
       <c r="BQ44" s="3"/>
       <c r="BR44" s="3"/>
     </row>
-    <row r="45" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3791,7 +3806,7 @@
       <c r="BQ45" s="3"/>
       <c r="BR45" s="3"/>
     </row>
-    <row r="46" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3861,7 +3876,7 @@
       <c r="BQ46" s="3"/>
       <c r="BR46" s="3"/>
     </row>
-    <row r="47" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3931,7 +3946,7 @@
       <c r="BQ47" s="3"/>
       <c r="BR47" s="3"/>
     </row>
-    <row r="48" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4001,7 +4016,7 @@
       <c r="BQ48" s="3"/>
       <c r="BR48" s="3"/>
     </row>
-    <row r="49" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4071,7 +4086,7 @@
       <c r="BQ49" s="3"/>
       <c r="BR49" s="3"/>
     </row>
-    <row r="50" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4141,7 +4156,7 @@
       <c r="BQ50" s="3"/>
       <c r="BR50" s="3"/>
     </row>
-    <row r="51" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4211,7 +4226,7 @@
       <c r="BQ51" s="3"/>
       <c r="BR51" s="3"/>
     </row>
-    <row r="52" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4281,7 +4296,7 @@
       <c r="BQ52" s="3"/>
       <c r="BR52" s="3"/>
     </row>
-    <row r="53" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4351,7 +4366,7 @@
       <c r="BQ53" s="3"/>
       <c r="BR53" s="3"/>
     </row>
-    <row r="54" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4421,7 +4436,7 @@
       <c r="BQ54" s="3"/>
       <c r="BR54" s="3"/>
     </row>
-    <row r="55" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4491,7 +4506,7 @@
       <c r="BQ55" s="3"/>
       <c r="BR55" s="3"/>
     </row>
-    <row r="56" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4561,7 +4576,7 @@
       <c r="BQ56" s="3"/>
       <c r="BR56" s="3"/>
     </row>
-    <row r="57" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4631,7 +4646,7 @@
       <c r="BQ57" s="3"/>
       <c r="BR57" s="3"/>
     </row>
-    <row r="58" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4701,7 +4716,7 @@
       <c r="BQ58" s="3"/>
       <c r="BR58" s="3"/>
     </row>
-    <row r="59" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4771,7 +4786,7 @@
       <c r="BQ59" s="3"/>
       <c r="BR59" s="3"/>
     </row>
-    <row r="60" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4841,7 +4856,7 @@
       <c r="BQ60" s="3"/>
       <c r="BR60" s="3"/>
     </row>
-    <row r="61" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4911,7 +4926,7 @@
       <c r="BQ61" s="3"/>
       <c r="BR61" s="3"/>
     </row>
-    <row r="62" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4981,7 +4996,7 @@
       <c r="BQ62" s="3"/>
       <c r="BR62" s="3"/>
     </row>
-    <row r="63" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -5051,7 +5066,7 @@
       <c r="BQ63" s="3"/>
       <c r="BR63" s="3"/>
     </row>
-    <row r="64" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5121,7 +5136,7 @@
       <c r="BQ64" s="3"/>
       <c r="BR64" s="3"/>
     </row>
-    <row r="65" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5191,7 +5206,7 @@
       <c r="BQ65" s="3"/>
       <c r="BR65" s="3"/>
     </row>
-    <row r="66" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5261,7 +5276,7 @@
       <c r="BQ66" s="3"/>
       <c r="BR66" s="3"/>
     </row>
-    <row r="67" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -5331,7 +5346,7 @@
       <c r="BQ67" s="3"/>
       <c r="BR67" s="3"/>
     </row>
-    <row r="68" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5401,7 +5416,7 @@
       <c r="BQ68" s="3"/>
       <c r="BR68" s="3"/>
     </row>
-    <row r="69" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5471,7 +5486,7 @@
       <c r="BQ69" s="3"/>
       <c r="BR69" s="3"/>
     </row>
-    <row r="70" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5541,7 +5556,7 @@
       <c r="BQ70" s="3"/>
       <c r="BR70" s="3"/>
     </row>
-    <row r="71" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5611,7 +5626,7 @@
       <c r="BQ71" s="3"/>
       <c r="BR71" s="3"/>
     </row>
-    <row r="72" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5681,7 +5696,7 @@
       <c r="BQ72" s="3"/>
       <c r="BR72" s="3"/>
     </row>
-    <row r="73" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5751,7 +5766,7 @@
       <c r="BQ73" s="3"/>
       <c r="BR73" s="3"/>
     </row>
-    <row r="74" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5821,7 +5836,7 @@
       <c r="BQ74" s="3"/>
       <c r="BR74" s="3"/>
     </row>
-    <row r="75" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5891,7 +5906,7 @@
       <c r="BQ75" s="3"/>
       <c r="BR75" s="3"/>
     </row>
-    <row r="76" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5961,7 +5976,7 @@
       <c r="BQ76" s="3"/>
       <c r="BR76" s="3"/>
     </row>
-    <row r="77" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -6031,7 +6046,7 @@
       <c r="BQ77" s="3"/>
       <c r="BR77" s="3"/>
     </row>
-    <row r="78" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -6101,7 +6116,7 @@
       <c r="BQ78" s="3"/>
       <c r="BR78" s="3"/>
     </row>
-    <row r="79" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -6171,7 +6186,7 @@
       <c r="BQ79" s="3"/>
       <c r="BR79" s="3"/>
     </row>
-    <row r="80" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -6241,7 +6256,7 @@
       <c r="BQ80" s="3"/>
       <c r="BR80" s="3"/>
     </row>
-    <row r="81" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -6311,7 +6326,7 @@
       <c r="BQ81" s="3"/>
       <c r="BR81" s="3"/>
     </row>
-    <row r="82" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -6381,7 +6396,7 @@
       <c r="BQ82" s="3"/>
       <c r="BR82" s="3"/>
     </row>
-    <row r="83" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -6451,7 +6466,7 @@
       <c r="BQ83" s="3"/>
       <c r="BR83" s="3"/>
     </row>
-    <row r="84" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -6521,7 +6536,7 @@
       <c r="BQ84" s="3"/>
       <c r="BR84" s="3"/>
     </row>
-    <row r="85" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -6591,7 +6606,7 @@
       <c r="BQ85" s="3"/>
       <c r="BR85" s="3"/>
     </row>
-    <row r="86" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -6661,7 +6676,7 @@
       <c r="BQ86" s="3"/>
       <c r="BR86" s="3"/>
     </row>
-    <row r="87" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -6731,7 +6746,7 @@
       <c r="BQ87" s="3"/>
       <c r="BR87" s="3"/>
     </row>
-    <row r="88" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -6801,7 +6816,7 @@
       <c r="BQ88" s="3"/>
       <c r="BR88" s="3"/>
     </row>
-    <row r="89" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -6871,7 +6886,7 @@
       <c r="BQ89" s="3"/>
       <c r="BR89" s="3"/>
     </row>
-    <row r="90" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -6941,7 +6956,7 @@
       <c r="BQ90" s="3"/>
       <c r="BR90" s="3"/>
     </row>
-    <row r="91" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -7011,7 +7026,7 @@
       <c r="BQ91" s="3"/>
       <c r="BR91" s="3"/>
     </row>
-    <row r="92" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -7081,7 +7096,7 @@
       <c r="BQ92" s="3"/>
       <c r="BR92" s="3"/>
     </row>
-    <row r="93" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -7151,7 +7166,7 @@
       <c r="BQ93" s="3"/>
       <c r="BR93" s="3"/>
     </row>
-    <row r="94" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -7221,7 +7236,7 @@
       <c r="BQ94" s="3"/>
       <c r="BR94" s="3"/>
     </row>
-    <row r="95" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -7291,7 +7306,7 @@
       <c r="BQ95" s="3"/>
       <c r="BR95" s="3"/>
     </row>
-    <row r="96" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -7361,7 +7376,7 @@
       <c r="BQ96" s="3"/>
       <c r="BR96" s="3"/>
     </row>
-    <row r="97" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -7431,7 +7446,7 @@
       <c r="BQ97" s="3"/>
       <c r="BR97" s="3"/>
     </row>
-    <row r="98" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -7501,7 +7516,7 @@
       <c r="BQ98" s="3"/>
       <c r="BR98" s="3"/>
     </row>
-    <row r="99" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -7571,7 +7586,7 @@
       <c r="BQ99" s="3"/>
       <c r="BR99" s="3"/>
     </row>
-    <row r="100" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -7641,7 +7656,7 @@
       <c r="BQ100" s="3"/>
       <c r="BR100" s="3"/>
     </row>
-    <row r="101" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -7711,7 +7726,7 @@
       <c r="BQ101" s="3"/>
       <c r="BR101" s="3"/>
     </row>
-    <row r="102" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -7781,7 +7796,7 @@
       <c r="BQ102" s="3"/>
       <c r="BR102" s="3"/>
     </row>
-    <row r="103" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -7851,7 +7866,7 @@
       <c r="BQ103" s="3"/>
       <c r="BR103" s="3"/>
     </row>
-    <row r="104" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -7921,7 +7936,7 @@
       <c r="BQ104" s="3"/>
       <c r="BR104" s="3"/>
     </row>
-    <row r="105" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -7991,7 +8006,7 @@
       <c r="BQ105" s="3"/>
       <c r="BR105" s="3"/>
     </row>
-    <row r="106" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -8061,7 +8076,7 @@
       <c r="BQ106" s="3"/>
       <c r="BR106" s="3"/>
     </row>
-    <row r="107" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -8131,7 +8146,7 @@
       <c r="BQ107" s="3"/>
       <c r="BR107" s="3"/>
     </row>
-    <row r="108" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -8201,7 +8216,7 @@
       <c r="BQ108" s="3"/>
       <c r="BR108" s="3"/>
     </row>
-    <row r="109" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -8271,7 +8286,7 @@
       <c r="BQ109" s="3"/>
       <c r="BR109" s="3"/>
     </row>
-    <row r="110" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -8341,7 +8356,7 @@
       <c r="BQ110" s="3"/>
       <c r="BR110" s="3"/>
     </row>
-    <row r="111" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -8411,7 +8426,7 @@
       <c r="BQ111" s="3"/>
       <c r="BR111" s="3"/>
     </row>
-    <row r="112" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -8481,7 +8496,7 @@
       <c r="BQ112" s="3"/>
       <c r="BR112" s="3"/>
     </row>
-    <row r="113" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -8551,7 +8566,7 @@
       <c r="BQ113" s="3"/>
       <c r="BR113" s="3"/>
     </row>
-    <row r="114" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -8621,7 +8636,7 @@
       <c r="BQ114" s="3"/>
       <c r="BR114" s="3"/>
     </row>
-    <row r="115" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -8691,7 +8706,7 @@
       <c r="BQ115" s="3"/>
       <c r="BR115" s="3"/>
     </row>
-    <row r="116" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -8761,7 +8776,7 @@
       <c r="BQ116" s="3"/>
       <c r="BR116" s="3"/>
     </row>
-    <row r="117" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -8831,7 +8846,7 @@
       <c r="BQ117" s="3"/>
       <c r="BR117" s="3"/>
     </row>
-    <row r="118" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -8901,7 +8916,7 @@
       <c r="BQ118" s="3"/>
       <c r="BR118" s="3"/>
     </row>
-    <row r="119" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -8971,7 +8986,7 @@
       <c r="BQ119" s="3"/>
       <c r="BR119" s="3"/>
     </row>
-    <row r="120" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -9041,7 +9056,7 @@
       <c r="BQ120" s="3"/>
       <c r="BR120" s="3"/>
     </row>
-    <row r="121" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -9111,7 +9126,7 @@
       <c r="BQ121" s="3"/>
       <c r="BR121" s="3"/>
     </row>
-    <row r="122" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -9181,7 +9196,7 @@
       <c r="BQ122" s="3"/>
       <c r="BR122" s="3"/>
     </row>
-    <row r="123" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -9251,7 +9266,7 @@
       <c r="BQ123" s="3"/>
       <c r="BR123" s="3"/>
     </row>
-    <row r="124" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -9321,7 +9336,7 @@
       <c r="BQ124" s="3"/>
       <c r="BR124" s="3"/>
     </row>
-    <row r="125" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -9391,7 +9406,7 @@
       <c r="BQ125" s="3"/>
       <c r="BR125" s="3"/>
     </row>
-    <row r="126" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -9461,7 +9476,7 @@
       <c r="BQ126" s="3"/>
       <c r="BR126" s="3"/>
     </row>
-    <row r="127" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -9531,7 +9546,7 @@
       <c r="BQ127" s="3"/>
       <c r="BR127" s="3"/>
     </row>
-    <row r="128" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -9601,7 +9616,7 @@
       <c r="BQ128" s="3"/>
       <c r="BR128" s="3"/>
     </row>
-    <row r="129" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -9671,7 +9686,7 @@
       <c r="BQ129" s="3"/>
       <c r="BR129" s="3"/>
     </row>
-    <row r="130" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -9741,7 +9756,7 @@
       <c r="BQ130" s="3"/>
       <c r="BR130" s="3"/>
     </row>
-    <row r="131" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -9811,7 +9826,7 @@
       <c r="BQ131" s="3"/>
       <c r="BR131" s="3"/>
     </row>
-    <row r="132" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -9881,7 +9896,7 @@
       <c r="BQ132" s="3"/>
       <c r="BR132" s="3"/>
     </row>
-    <row r="133" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -9951,7 +9966,7 @@
       <c r="BQ133" s="3"/>
       <c r="BR133" s="3"/>
     </row>
-    <row r="134" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -10021,7 +10036,7 @@
       <c r="BQ134" s="3"/>
       <c r="BR134" s="3"/>
     </row>
-    <row r="135" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -10091,7 +10106,7 @@
       <c r="BQ135" s="3"/>
       <c r="BR135" s="3"/>
     </row>
-    <row r="136" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -10161,7 +10176,7 @@
       <c r="BQ136" s="3"/>
       <c r="BR136" s="3"/>
     </row>
-    <row r="137" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -10231,7 +10246,7 @@
       <c r="BQ137" s="3"/>
       <c r="BR137" s="3"/>
     </row>
-    <row r="138" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -10301,7 +10316,7 @@
       <c r="BQ138" s="3"/>
       <c r="BR138" s="3"/>
     </row>
-    <row r="139" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -10371,7 +10386,7 @@
       <c r="BQ139" s="3"/>
       <c r="BR139" s="3"/>
     </row>
-    <row r="140" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -10441,7 +10456,7 @@
       <c r="BQ140" s="3"/>
       <c r="BR140" s="3"/>
     </row>
-    <row r="141" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -10511,7 +10526,7 @@
       <c r="BQ141" s="3"/>
       <c r="BR141" s="3"/>
     </row>
-    <row r="142" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -10581,7 +10596,7 @@
       <c r="BQ142" s="3"/>
       <c r="BR142" s="3"/>
     </row>
-    <row r="143" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -10651,7 +10666,7 @@
       <c r="BQ143" s="3"/>
       <c r="BR143" s="3"/>
     </row>
-    <row r="144" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -10721,7 +10736,7 @@
       <c r="BQ144" s="3"/>
       <c r="BR144" s="3"/>
     </row>
-    <row r="145" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -10791,7 +10806,7 @@
       <c r="BQ145" s="3"/>
       <c r="BR145" s="3"/>
     </row>
-    <row r="146" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -10861,7 +10876,7 @@
       <c r="BQ146" s="3"/>
       <c r="BR146" s="3"/>
     </row>
-    <row r="147" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -10931,7 +10946,7 @@
       <c r="BQ147" s="3"/>
       <c r="BR147" s="3"/>
     </row>
-    <row r="148" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -11001,7 +11016,7 @@
       <c r="BQ148" s="3"/>
       <c r="BR148" s="3"/>
     </row>
-    <row r="149" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -11071,7 +11086,7 @@
       <c r="BQ149" s="3"/>
       <c r="BR149" s="3"/>
     </row>
-    <row r="150" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -11141,7 +11156,7 @@
       <c r="BQ150" s="3"/>
       <c r="BR150" s="3"/>
     </row>
-    <row r="151" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -11211,7 +11226,7 @@
       <c r="BQ151" s="3"/>
       <c r="BR151" s="3"/>
     </row>
-    <row r="152" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -11281,7 +11296,7 @@
       <c r="BQ152" s="3"/>
       <c r="BR152" s="3"/>
     </row>
-    <row r="153" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -11351,7 +11366,7 @@
       <c r="BQ153" s="3"/>
       <c r="BR153" s="3"/>
     </row>
-    <row r="154" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -11421,7 +11436,7 @@
       <c r="BQ154" s="3"/>
       <c r="BR154" s="3"/>
     </row>
-    <row r="155" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -11491,7 +11506,7 @@
       <c r="BQ155" s="3"/>
       <c r="BR155" s="3"/>
     </row>
-    <row r="156" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -11561,7 +11576,7 @@
       <c r="BQ156" s="3"/>
       <c r="BR156" s="3"/>
     </row>
-    <row r="157" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -11631,7 +11646,7 @@
       <c r="BQ157" s="3"/>
       <c r="BR157" s="3"/>
     </row>
-    <row r="158" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -11701,7 +11716,7 @@
       <c r="BQ158" s="3"/>
       <c r="BR158" s="3"/>
     </row>
-    <row r="159" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -11771,7 +11786,7 @@
       <c r="BQ159" s="3"/>
       <c r="BR159" s="3"/>
     </row>
-    <row r="160" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -11841,7 +11856,7 @@
       <c r="BQ160" s="3"/>
       <c r="BR160" s="3"/>
     </row>
-    <row r="161" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -11911,7 +11926,7 @@
       <c r="BQ161" s="3"/>
       <c r="BR161" s="3"/>
     </row>
-    <row r="162" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -11981,7 +11996,7 @@
       <c r="BQ162" s="3"/>
       <c r="BR162" s="3"/>
     </row>
-    <row r="163" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -12051,7 +12066,7 @@
       <c r="BQ163" s="3"/>
       <c r="BR163" s="3"/>
     </row>
-    <row r="164" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -12121,7 +12136,7 @@
       <c r="BQ164" s="3"/>
       <c r="BR164" s="3"/>
     </row>
-    <row r="165" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -12191,7 +12206,7 @@
       <c r="BQ165" s="3"/>
       <c r="BR165" s="3"/>
     </row>
-    <row r="166" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -12261,7 +12276,7 @@
       <c r="BQ166" s="3"/>
       <c r="BR166" s="3"/>
     </row>
-    <row r="167" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -12331,7 +12346,7 @@
       <c r="BQ167" s="3"/>
       <c r="BR167" s="3"/>
     </row>
-    <row r="168" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -12401,7 +12416,7 @@
       <c r="BQ168" s="3"/>
       <c r="BR168" s="3"/>
     </row>
-    <row r="169" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -12471,7 +12486,7 @@
       <c r="BQ169" s="3"/>
       <c r="BR169" s="3"/>
     </row>
-    <row r="170" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -12541,7 +12556,7 @@
       <c r="BQ170" s="3"/>
       <c r="BR170" s="3"/>
     </row>
-    <row r="171" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -12611,7 +12626,7 @@
       <c r="BQ171" s="3"/>
       <c r="BR171" s="3"/>
     </row>
-    <row r="172" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -12681,7 +12696,7 @@
       <c r="BQ172" s="3"/>
       <c r="BR172" s="3"/>
     </row>
-    <row r="173" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -12751,7 +12766,7 @@
       <c r="BQ173" s="3"/>
       <c r="BR173" s="3"/>
     </row>
-    <row r="174" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -12821,7 +12836,7 @@
       <c r="BQ174" s="3"/>
       <c r="BR174" s="3"/>
     </row>
-    <row r="175" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -12891,7 +12906,7 @@
       <c r="BQ175" s="3"/>
       <c r="BR175" s="3"/>
     </row>
-    <row r="176" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -12961,7 +12976,7 @@
       <c r="BQ176" s="3"/>
       <c r="BR176" s="3"/>
     </row>
-    <row r="177" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -13031,7 +13046,7 @@
       <c r="BQ177" s="3"/>
       <c r="BR177" s="3"/>
     </row>
-    <row r="178" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -13101,7 +13116,7 @@
       <c r="BQ178" s="3"/>
       <c r="BR178" s="3"/>
     </row>
-    <row r="179" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -13171,7 +13186,7 @@
       <c r="BQ179" s="3"/>
       <c r="BR179" s="3"/>
     </row>
-    <row r="180" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -13241,7 +13256,7 @@
       <c r="BQ180" s="3"/>
       <c r="BR180" s="3"/>
     </row>
-    <row r="181" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -13311,7 +13326,7 @@
       <c r="BQ181" s="3"/>
       <c r="BR181" s="3"/>
     </row>
-    <row r="182" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -13381,7 +13396,7 @@
       <c r="BQ182" s="3"/>
       <c r="BR182" s="3"/>
     </row>
-    <row r="183" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -13451,7 +13466,7 @@
       <c r="BQ183" s="3"/>
       <c r="BR183" s="3"/>
     </row>
-    <row r="184" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -13521,7 +13536,7 @@
       <c r="BQ184" s="3"/>
       <c r="BR184" s="3"/>
     </row>
-    <row r="185" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -13591,7 +13606,7 @@
       <c r="BQ185" s="3"/>
       <c r="BR185" s="3"/>
     </row>
-    <row r="186" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -13661,7 +13676,7 @@
       <c r="BQ186" s="3"/>
       <c r="BR186" s="3"/>
     </row>
-    <row r="187" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -13731,7 +13746,7 @@
       <c r="BQ187" s="3"/>
       <c r="BR187" s="3"/>
     </row>
-    <row r="188" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -13801,7 +13816,7 @@
       <c r="BQ188" s="3"/>
       <c r="BR188" s="3"/>
     </row>
-    <row r="189" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -13871,7 +13886,7 @@
       <c r="BQ189" s="3"/>
       <c r="BR189" s="3"/>
     </row>
-    <row r="190" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -13941,7 +13956,7 @@
       <c r="BQ190" s="3"/>
       <c r="BR190" s="3"/>
     </row>
-    <row r="191" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -14011,7 +14026,7 @@
       <c r="BQ191" s="3"/>
       <c r="BR191" s="3"/>
     </row>
-    <row r="192" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -14081,7 +14096,7 @@
       <c r="BQ192" s="3"/>
       <c r="BR192" s="3"/>
     </row>
-    <row r="193" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -14151,7 +14166,7 @@
       <c r="BQ193" s="3"/>
       <c r="BR193" s="3"/>
     </row>
-    <row r="194" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -14221,7 +14236,7 @@
       <c r="BQ194" s="3"/>
       <c r="BR194" s="3"/>
     </row>
-    <row r="195" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -14291,7 +14306,7 @@
       <c r="BQ195" s="3"/>
       <c r="BR195" s="3"/>
     </row>
-    <row r="196" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -14361,7 +14376,7 @@
       <c r="BQ196" s="3"/>
       <c r="BR196" s="3"/>
     </row>
-    <row r="197" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -14431,7 +14446,7 @@
       <c r="BQ197" s="3"/>
       <c r="BR197" s="3"/>
     </row>
-    <row r="198" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -14501,7 +14516,7 @@
       <c r="BQ198" s="3"/>
       <c r="BR198" s="3"/>
     </row>
-    <row r="199" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -14571,7 +14586,7 @@
       <c r="BQ199" s="3"/>
       <c r="BR199" s="3"/>
     </row>
-    <row r="200" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -14641,7 +14656,7 @@
       <c r="BQ200" s="3"/>
       <c r="BR200" s="3"/>
     </row>
-    <row r="201" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -14711,7 +14726,7 @@
       <c r="BQ201" s="3"/>
       <c r="BR201" s="3"/>
     </row>
-    <row r="202" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -14781,7 +14796,7 @@
       <c r="BQ202" s="3"/>
       <c r="BR202" s="3"/>
     </row>
-    <row r="203" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -14851,7 +14866,7 @@
       <c r="BQ203" s="3"/>
       <c r="BR203" s="3"/>
     </row>
-    <row r="204" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -14921,7 +14936,7 @@
       <c r="BQ204" s="3"/>
       <c r="BR204" s="3"/>
     </row>
-    <row r="205" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -14991,7 +15006,7 @@
       <c r="BQ205" s="3"/>
       <c r="BR205" s="3"/>
     </row>
-    <row r="206" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -15061,7 +15076,7 @@
       <c r="BQ206" s="3"/>
       <c r="BR206" s="3"/>
     </row>
-    <row r="207" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -15131,7 +15146,7 @@
       <c r="BQ207" s="3"/>
       <c r="BR207" s="3"/>
     </row>
-    <row r="208" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -15201,7 +15216,7 @@
       <c r="BQ208" s="3"/>
       <c r="BR208" s="3"/>
     </row>
-    <row r="209" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -15271,7 +15286,7 @@
       <c r="BQ209" s="3"/>
       <c r="BR209" s="3"/>
     </row>
-    <row r="210" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -15341,7 +15356,7 @@
       <c r="BQ210" s="3"/>
       <c r="BR210" s="3"/>
     </row>
-    <row r="211" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -15411,7 +15426,7 @@
       <c r="BQ211" s="3"/>
       <c r="BR211" s="3"/>
     </row>
-    <row r="212" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -15481,7 +15496,7 @@
       <c r="BQ212" s="3"/>
       <c r="BR212" s="3"/>
     </row>
-    <row r="213" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -15551,7 +15566,7 @@
       <c r="BQ213" s="3"/>
       <c r="BR213" s="3"/>
     </row>
-    <row r="214" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -15621,7 +15636,7 @@
       <c r="BQ214" s="3"/>
       <c r="BR214" s="3"/>
     </row>
-    <row r="215" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -15691,7 +15706,7 @@
       <c r="BQ215" s="3"/>
       <c r="BR215" s="3"/>
     </row>
-    <row r="216" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -15761,7 +15776,7 @@
       <c r="BQ216" s="3"/>
       <c r="BR216" s="3"/>
     </row>
-    <row r="217" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -15831,7 +15846,7 @@
       <c r="BQ217" s="3"/>
       <c r="BR217" s="3"/>
     </row>
-    <row r="218" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -15901,7 +15916,7 @@
       <c r="BQ218" s="3"/>
       <c r="BR218" s="3"/>
     </row>
-    <row r="219" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -15971,7 +15986,7 @@
       <c r="BQ219" s="3"/>
       <c r="BR219" s="3"/>
     </row>
-    <row r="220" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -16041,7 +16056,7 @@
       <c r="BQ220" s="3"/>
       <c r="BR220" s="3"/>
     </row>
-    <row r="221" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -16111,7 +16126,7 @@
       <c r="BQ221" s="3"/>
       <c r="BR221" s="3"/>
     </row>
-    <row r="222" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -16181,7 +16196,7 @@
       <c r="BQ222" s="3"/>
       <c r="BR222" s="3"/>
     </row>
-    <row r="223" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -16251,7 +16266,7 @@
       <c r="BQ223" s="3"/>
       <c r="BR223" s="3"/>
     </row>
-    <row r="224" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -16321,7 +16336,7 @@
       <c r="BQ224" s="3"/>
       <c r="BR224" s="3"/>
     </row>
-    <row r="225" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -16391,7 +16406,7 @@
       <c r="BQ225" s="3"/>
       <c r="BR225" s="3"/>
     </row>
-    <row r="226" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -16461,7 +16476,7 @@
       <c r="BQ226" s="3"/>
       <c r="BR226" s="3"/>
     </row>
-    <row r="227" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -16531,7 +16546,7 @@
       <c r="BQ227" s="3"/>
       <c r="BR227" s="3"/>
     </row>
-    <row r="228" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -16601,7 +16616,7 @@
       <c r="BQ228" s="3"/>
       <c r="BR228" s="3"/>
     </row>
-    <row r="229" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -16671,7 +16686,7 @@
       <c r="BQ229" s="3"/>
       <c r="BR229" s="3"/>
     </row>
-    <row r="230" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -16741,7 +16756,7 @@
       <c r="BQ230" s="3"/>
       <c r="BR230" s="3"/>
     </row>
-    <row r="231" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -16811,7 +16826,7 @@
       <c r="BQ231" s="3"/>
       <c r="BR231" s="3"/>
     </row>
-    <row r="232" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -16881,7 +16896,7 @@
       <c r="BQ232" s="3"/>
       <c r="BR232" s="3"/>
     </row>
-    <row r="233" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -16951,7 +16966,7 @@
       <c r="BQ233" s="3"/>
       <c r="BR233" s="3"/>
     </row>
-    <row r="234" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -17021,7 +17036,7 @@
       <c r="BQ234" s="3"/>
       <c r="BR234" s="3"/>
     </row>
-    <row r="235" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -17091,7 +17106,7 @@
       <c r="BQ235" s="3"/>
       <c r="BR235" s="3"/>
     </row>
-    <row r="236" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -17161,7 +17176,7 @@
       <c r="BQ236" s="3"/>
       <c r="BR236" s="3"/>
     </row>
-    <row r="237" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -17231,7 +17246,7 @@
       <c r="BQ237" s="3"/>
       <c r="BR237" s="3"/>
     </row>
-    <row r="238" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -17301,7 +17316,7 @@
       <c r="BQ238" s="3"/>
       <c r="BR238" s="3"/>
     </row>
-    <row r="239" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -17371,7 +17386,7 @@
       <c r="BQ239" s="3"/>
       <c r="BR239" s="3"/>
     </row>
-    <row r="240" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -17441,7 +17456,7 @@
       <c r="BQ240" s="3"/>
       <c r="BR240" s="3"/>
     </row>
-    <row r="241" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -17511,7 +17526,7 @@
       <c r="BQ241" s="3"/>
       <c r="BR241" s="3"/>
     </row>
-    <row r="242" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -17581,7 +17596,7 @@
       <c r="BQ242" s="3"/>
       <c r="BR242" s="3"/>
     </row>
-    <row r="243" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -17651,7 +17666,7 @@
       <c r="BQ243" s="3"/>
       <c r="BR243" s="3"/>
     </row>
-    <row r="244" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -17721,7 +17736,7 @@
       <c r="BQ244" s="3"/>
       <c r="BR244" s="3"/>
     </row>
-    <row r="245" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -17791,7 +17806,7 @@
       <c r="BQ245" s="3"/>
       <c r="BR245" s="3"/>
     </row>
-    <row r="246" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -17861,7 +17876,7 @@
       <c r="BQ246" s="3"/>
       <c r="BR246" s="3"/>
     </row>
-    <row r="247" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -17931,7 +17946,7 @@
       <c r="BQ247" s="3"/>
       <c r="BR247" s="3"/>
     </row>
-    <row r="248" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -18001,7 +18016,7 @@
       <c r="BQ248" s="3"/>
       <c r="BR248" s="3"/>
     </row>
-    <row r="249" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -18071,7 +18086,7 @@
       <c r="BQ249" s="3"/>
       <c r="BR249" s="3"/>
     </row>
-    <row r="250" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -18141,7 +18156,7 @@
       <c r="BQ250" s="3"/>
       <c r="BR250" s="3"/>
     </row>
-    <row r="251" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -18211,7 +18226,7 @@
       <c r="BQ251" s="3"/>
       <c r="BR251" s="3"/>
     </row>
-    <row r="252" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -18281,7 +18296,7 @@
       <c r="BQ252" s="3"/>
       <c r="BR252" s="3"/>
     </row>
-    <row r="253" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -18351,7 +18366,7 @@
       <c r="BQ253" s="3"/>
       <c r="BR253" s="3"/>
     </row>
-    <row r="254" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -18421,7 +18436,7 @@
       <c r="BQ254" s="3"/>
       <c r="BR254" s="3"/>
     </row>
-    <row r="255" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -18491,7 +18506,7 @@
       <c r="BQ255" s="3"/>
       <c r="BR255" s="3"/>
     </row>
-    <row r="256" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -18561,7 +18576,7 @@
       <c r="BQ256" s="3"/>
       <c r="BR256" s="3"/>
     </row>
-    <row r="257" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -18631,7 +18646,7 @@
       <c r="BQ257" s="3"/>
       <c r="BR257" s="3"/>
     </row>
-    <row r="258" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -18701,7 +18716,7 @@
       <c r="BQ258" s="3"/>
       <c r="BR258" s="3"/>
     </row>
-    <row r="259" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -18771,7 +18786,7 @@
       <c r="BQ259" s="3"/>
       <c r="BR259" s="3"/>
     </row>
-    <row r="260" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -18841,7 +18856,7 @@
       <c r="BQ260" s="3"/>
       <c r="BR260" s="3"/>
     </row>
-    <row r="261" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -18911,7 +18926,7 @@
       <c r="BQ261" s="3"/>
       <c r="BR261" s="3"/>
     </row>
-    <row r="262" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -18981,7 +18996,7 @@
       <c r="BQ262" s="3"/>
       <c r="BR262" s="3"/>
     </row>
-    <row r="263" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -19051,7 +19066,7 @@
       <c r="BQ263" s="3"/>
       <c r="BR263" s="3"/>
     </row>
-    <row r="264" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -19121,7 +19136,7 @@
       <c r="BQ264" s="3"/>
       <c r="BR264" s="3"/>
     </row>
-    <row r="265" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -19191,7 +19206,7 @@
       <c r="BQ265" s="3"/>
       <c r="BR265" s="3"/>
     </row>
-    <row r="266" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -19261,7 +19276,7 @@
       <c r="BQ266" s="3"/>
       <c r="BR266" s="3"/>
     </row>
-    <row r="267" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -19331,7 +19346,7 @@
       <c r="BQ267" s="3"/>
       <c r="BR267" s="3"/>
     </row>
-    <row r="268" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -19401,7 +19416,7 @@
       <c r="BQ268" s="3"/>
       <c r="BR268" s="3"/>
     </row>
-    <row r="269" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -19471,7 +19486,7 @@
       <c r="BQ269" s="3"/>
       <c r="BR269" s="3"/>
     </row>
-    <row r="270" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -19541,7 +19556,7 @@
       <c r="BQ270" s="3"/>
       <c r="BR270" s="3"/>
     </row>
-    <row r="271" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -19611,7 +19626,7 @@
       <c r="BQ271" s="3"/>
       <c r="BR271" s="3"/>
     </row>
-    <row r="272" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -19681,7 +19696,7 @@
       <c r="BQ272" s="3"/>
       <c r="BR272" s="3"/>
     </row>
-    <row r="273" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -19751,7 +19766,7 @@
       <c r="BQ273" s="3"/>
       <c r="BR273" s="3"/>
     </row>
-    <row r="274" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -19821,7 +19836,7 @@
       <c r="BQ274" s="3"/>
       <c r="BR274" s="3"/>
     </row>
-    <row r="275" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -19891,7 +19906,7 @@
       <c r="BQ275" s="3"/>
       <c r="BR275" s="3"/>
     </row>
-    <row r="276" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -19961,7 +19976,7 @@
       <c r="BQ276" s="3"/>
       <c r="BR276" s="3"/>
     </row>
-    <row r="277" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -20031,7 +20046,7 @@
       <c r="BQ277" s="3"/>
       <c r="BR277" s="3"/>
     </row>
-    <row r="278" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -20101,7 +20116,7 @@
       <c r="BQ278" s="3"/>
       <c r="BR278" s="3"/>
     </row>
-    <row r="279" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -20171,7 +20186,7 @@
       <c r="BQ279" s="3"/>
       <c r="BR279" s="3"/>
     </row>
-    <row r="280" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -20241,7 +20256,7 @@
       <c r="BQ280" s="3"/>
       <c r="BR280" s="3"/>
     </row>
-    <row r="281" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -20311,7 +20326,7 @@
       <c r="BQ281" s="3"/>
       <c r="BR281" s="3"/>
     </row>
-    <row r="282" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -20381,7 +20396,7 @@
       <c r="BQ282" s="3"/>
       <c r="BR282" s="3"/>
     </row>
-    <row r="283" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -20451,7 +20466,7 @@
       <c r="BQ283" s="3"/>
       <c r="BR283" s="3"/>
     </row>
-    <row r="284" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -20521,7 +20536,7 @@
       <c r="BQ284" s="3"/>
       <c r="BR284" s="3"/>
     </row>
-    <row r="285" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -20591,7 +20606,7 @@
       <c r="BQ285" s="3"/>
       <c r="BR285" s="3"/>
     </row>
-    <row r="286" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -20661,7 +20676,7 @@
       <c r="BQ286" s="3"/>
       <c r="BR286" s="3"/>
     </row>
-    <row r="287" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -20731,7 +20746,7 @@
       <c r="BQ287" s="3"/>
       <c r="BR287" s="3"/>
     </row>
-    <row r="288" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -20801,7 +20816,7 @@
       <c r="BQ288" s="3"/>
       <c r="BR288" s="3"/>
     </row>
-    <row r="289" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -20871,7 +20886,7 @@
       <c r="BQ289" s="3"/>
       <c r="BR289" s="3"/>
     </row>
-    <row r="290" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -20941,7 +20956,7 @@
       <c r="BQ290" s="3"/>
       <c r="BR290" s="3"/>
     </row>
-    <row r="291" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -21011,7 +21026,7 @@
       <c r="BQ291" s="3"/>
       <c r="BR291" s="3"/>
     </row>
-    <row r="292" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -21081,7 +21096,7 @@
       <c r="BQ292" s="3"/>
       <c r="BR292" s="3"/>
     </row>
-    <row r="293" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -21151,7 +21166,7 @@
       <c r="BQ293" s="3"/>
       <c r="BR293" s="3"/>
     </row>
-    <row r="294" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -21221,7 +21236,7 @@
       <c r="BQ294" s="3"/>
       <c r="BR294" s="3"/>
     </row>
-    <row r="295" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -21291,7 +21306,7 @@
       <c r="BQ295" s="3"/>
       <c r="BR295" s="3"/>
     </row>
-    <row r="296" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -21361,7 +21376,7 @@
       <c r="BQ296" s="3"/>
       <c r="BR296" s="3"/>
     </row>
-    <row r="297" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -21431,7 +21446,7 @@
       <c r="BQ297" s="3"/>
       <c r="BR297" s="3"/>
     </row>
-    <row r="298" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -21501,7 +21516,7 @@
       <c r="BQ298" s="3"/>
       <c r="BR298" s="3"/>
     </row>
-    <row r="299" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -21571,7 +21586,7 @@
       <c r="BQ299" s="3"/>
       <c r="BR299" s="3"/>
     </row>
-    <row r="300" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -21641,7 +21656,7 @@
       <c r="BQ300" s="3"/>
       <c r="BR300" s="3"/>
     </row>
-    <row r="301" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -21711,7 +21726,7 @@
       <c r="BQ301" s="3"/>
       <c r="BR301" s="3"/>
     </row>
-    <row r="302" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -21781,7 +21796,7 @@
       <c r="BQ302" s="3"/>
       <c r="BR302" s="3"/>
     </row>
-    <row r="303" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -21851,7 +21866,7 @@
       <c r="BQ303" s="3"/>
       <c r="BR303" s="3"/>
     </row>
-    <row r="304" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -21921,7 +21936,7 @@
       <c r="BQ304" s="3"/>
       <c r="BR304" s="3"/>
     </row>
-    <row r="305" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -21991,7 +22006,7 @@
       <c r="BQ305" s="3"/>
       <c r="BR305" s="3"/>
     </row>
-    <row r="306" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -22061,7 +22076,7 @@
       <c r="BQ306" s="3"/>
       <c r="BR306" s="3"/>
     </row>
-    <row r="307" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -22131,7 +22146,7 @@
       <c r="BQ307" s="3"/>
       <c r="BR307" s="3"/>
     </row>
-    <row r="308" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -22201,7 +22216,7 @@
       <c r="BQ308" s="3"/>
       <c r="BR308" s="3"/>
     </row>
-    <row r="309" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -22271,7 +22286,7 @@
       <c r="BQ309" s="3"/>
       <c r="BR309" s="3"/>
     </row>
-    <row r="310" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -22341,7 +22356,7 @@
       <c r="BQ310" s="3"/>
       <c r="BR310" s="3"/>
     </row>
-    <row r="311" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -22411,7 +22426,7 @@
       <c r="BQ311" s="3"/>
       <c r="BR311" s="3"/>
     </row>
-    <row r="312" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -22481,7 +22496,7 @@
       <c r="BQ312" s="3"/>
       <c r="BR312" s="3"/>
     </row>
-    <row r="313" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -22551,7 +22566,7 @@
       <c r="BQ313" s="3"/>
       <c r="BR313" s="3"/>
     </row>
-    <row r="314" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -22621,7 +22636,7 @@
       <c r="BQ314" s="3"/>
       <c r="BR314" s="3"/>
     </row>
-    <row r="315" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -22691,7 +22706,7 @@
       <c r="BQ315" s="3"/>
       <c r="BR315" s="3"/>
     </row>
-    <row r="316" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -22761,7 +22776,7 @@
       <c r="BQ316" s="3"/>
       <c r="BR316" s="3"/>
     </row>
-    <row r="317" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -22831,7 +22846,7 @@
       <c r="BQ317" s="3"/>
       <c r="BR317" s="3"/>
     </row>
-    <row r="318" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -22901,7 +22916,7 @@
       <c r="BQ318" s="3"/>
       <c r="BR318" s="3"/>
     </row>
-    <row r="319" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -22971,7 +22986,7 @@
       <c r="BQ319" s="3"/>
       <c r="BR319" s="3"/>
     </row>
-    <row r="320" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -23041,7 +23056,7 @@
       <c r="BQ320" s="3"/>
       <c r="BR320" s="3"/>
     </row>
-    <row r="321" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -23111,7 +23126,7 @@
       <c r="BQ321" s="3"/>
       <c r="BR321" s="3"/>
     </row>
-    <row r="322" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -23181,7 +23196,7 @@
       <c r="BQ322" s="3"/>
       <c r="BR322" s="3"/>
     </row>
-    <row r="323" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -23251,7 +23266,7 @@
       <c r="BQ323" s="3"/>
       <c r="BR323" s="3"/>
     </row>
-    <row r="324" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -23321,7 +23336,7 @@
       <c r="BQ324" s="3"/>
       <c r="BR324" s="3"/>
     </row>
-    <row r="325" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -23391,7 +23406,7 @@
       <c r="BQ325" s="3"/>
       <c r="BR325" s="3"/>
     </row>
-    <row r="326" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -23461,7 +23476,7 @@
       <c r="BQ326" s="3"/>
       <c r="BR326" s="3"/>
     </row>
-    <row r="327" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -23531,7 +23546,7 @@
       <c r="BQ327" s="3"/>
       <c r="BR327" s="3"/>
     </row>
-    <row r="328" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -23601,7 +23616,7 @@
       <c r="BQ328" s="3"/>
       <c r="BR328" s="3"/>
     </row>
-    <row r="329" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -23671,7 +23686,7 @@
       <c r="BQ329" s="3"/>
       <c r="BR329" s="3"/>
     </row>
-    <row r="330" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -23741,7 +23756,7 @@
       <c r="BQ330" s="3"/>
       <c r="BR330" s="3"/>
     </row>
-    <row r="331" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -23811,7 +23826,7 @@
       <c r="BQ331" s="3"/>
       <c r="BR331" s="3"/>
     </row>
-    <row r="332" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -23881,7 +23896,7 @@
       <c r="BQ332" s="3"/>
       <c r="BR332" s="3"/>
     </row>
-    <row r="333" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -23951,7 +23966,7 @@
       <c r="BQ333" s="3"/>
       <c r="BR333" s="3"/>
     </row>
-    <row r="334" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -24021,7 +24036,7 @@
       <c r="BQ334" s="3"/>
       <c r="BR334" s="3"/>
     </row>
-    <row r="335" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -24091,7 +24106,7 @@
       <c r="BQ335" s="3"/>
       <c r="BR335" s="3"/>
     </row>
-    <row r="336" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -24161,7 +24176,7 @@
       <c r="BQ336" s="3"/>
       <c r="BR336" s="3"/>
     </row>
-    <row r="337" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -24231,7 +24246,7 @@
       <c r="BQ337" s="3"/>
       <c r="BR337" s="3"/>
     </row>
-    <row r="338" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -24301,7 +24316,7 @@
       <c r="BQ338" s="3"/>
       <c r="BR338" s="3"/>
     </row>
-    <row r="339" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -24371,7 +24386,7 @@
       <c r="BQ339" s="3"/>
       <c r="BR339" s="3"/>
     </row>
-    <row r="340" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -24441,7 +24456,7 @@
       <c r="BQ340" s="3"/>
       <c r="BR340" s="3"/>
     </row>
-    <row r="341" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -24511,7 +24526,7 @@
       <c r="BQ341" s="3"/>
       <c r="BR341" s="3"/>
     </row>
-    <row r="342" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -24581,7 +24596,7 @@
       <c r="BQ342" s="3"/>
       <c r="BR342" s="3"/>
     </row>
-    <row r="343" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -24651,7 +24666,7 @@
       <c r="BQ343" s="3"/>
       <c r="BR343" s="3"/>
     </row>
-    <row r="344" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -24721,7 +24736,7 @@
       <c r="BQ344" s="3"/>
       <c r="BR344" s="3"/>
     </row>
-    <row r="345" spans="3:70" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
